--- a/Project_Datasets-updated.xlsx
+++ b/Project_Datasets-updated.xlsx
@@ -1,18 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28502"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28810"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/labuser/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dustymichels/GitRepos/Carleton/biol338-genomics/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="460" windowWidth="34680" windowHeight="15300" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="133">
   <si>
     <t>Tara Oceans Datasets</t>
   </si>
@@ -44,12 +45,6 @@
     <t>Depth</t>
   </si>
   <si>
-    <t>Temp</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -0.78154 °C</t>
-  </si>
-  <si>
     <t>90 m</t>
   </si>
   <si>
@@ -104,9 +99,6 @@
     <t>ERR599104</t>
   </si>
   <si>
-    <t>0.67108 °C</t>
-  </si>
-  <si>
     <t>-62.0385 , -49.5290</t>
   </si>
   <si>
@@ -137,9 +129,6 @@
     <t>mesopelagic zone </t>
   </si>
   <si>
-    <t>0.45883 °C</t>
-  </si>
-  <si>
     <t>790 m</t>
   </si>
   <si>
@@ -161,9 +150,6 @@
     <t>https://www.ebi.ac.uk/metagenomics/projects/ERP001736/samples/ERS491110/runs/ERR599008/results/versions/2.0</t>
   </si>
   <si>
-    <t>24.69625 °C</t>
-  </si>
-  <si>
     <t>115 m</t>
   </si>
   <si>
@@ -191,9 +177,6 @@
     <t>-8.9971 , -139.1963</t>
   </si>
   <si>
-    <t>26.54413 °C</t>
-  </si>
-  <si>
     <t>0.166512 mg Chl/m3</t>
   </si>
   <si>
@@ -224,9 +207,6 @@
     <t>0 mg Chl/m3</t>
   </si>
   <si>
-    <t xml:space="preserve"> 7.212238 °C</t>
-  </si>
-  <si>
     <t>38.115125 µmol/Kg</t>
   </si>
   <si>
@@ -245,9 +225,6 @@
     <t>North Atlantic (off the coast of Portugal)</t>
   </si>
   <si>
-    <t>14.28065 °C</t>
-  </si>
-  <si>
     <t>0.238225 mg Chl/m3</t>
   </si>
   <si>
@@ -275,9 +252,6 @@
     <t>20.8457 , 63.5851</t>
   </si>
   <si>
-    <t>12.066048 °C</t>
-  </si>
-  <si>
     <t>31.802451 µmol/L</t>
   </si>
   <si>
@@ -305,9 +279,6 @@
     <t>31.5168 , -159.0460</t>
   </si>
   <si>
-    <t>15.284298 °C</t>
-  </si>
-  <si>
     <t>0.276677 mg Chl/m3</t>
   </si>
   <si>
@@ -329,9 +300,6 @@
     <t>31.5280 , -159.0224</t>
   </si>
   <si>
-    <t>6.689724 °C</t>
-  </si>
-  <si>
     <t>550 m</t>
   </si>
   <si>
@@ -359,9 +327,6 @@
     <t>31.5213 , -158.9958</t>
   </si>
   <si>
-    <t>25.173925 °C</t>
-  </si>
-  <si>
     <t>0.057131 mg Chl/m3</t>
   </si>
   <si>
@@ -453,6 +418,15 @@
   </si>
   <si>
     <t>Dustin</t>
+  </si>
+  <si>
+    <t>Temp °C</t>
+  </si>
+  <si>
+    <t>Warm/Cold</t>
+  </si>
+  <si>
+    <t>cold</t>
   </si>
 </sst>
 </file>
@@ -592,9 +566,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -630,7 +608,7 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="13">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -638,6 +616,10 @@
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -921,8 +903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -950,16 +932,16 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2" s="19" t="s">
         <v>2</v>
@@ -971,516 +953,702 @@
         <v>4</v>
       </c>
       <c r="H2" s="19" t="s">
-        <v>5</v>
+        <v>130</v>
       </c>
       <c r="I2" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="K2" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="L2" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="19" t="s">
-        <v>14</v>
-      </c>
       <c r="M2" s="19" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N2" s="19" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="20" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G3" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="8">
+        <v>-0.78154000000000001</v>
+      </c>
+      <c r="I3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="13" t="s">
+      <c r="J3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="K3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="L3" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="13" t="s">
-        <v>15</v>
-      </c>
       <c r="M3" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N3" s="18" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="20" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>25</v>
+        <v>33</v>
+      </c>
+      <c r="H4" s="13">
+        <v>0.45883000000000002</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="L4" s="13" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="M4" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N4" s="8" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="20" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>36</v>
+        <v>24</v>
+      </c>
+      <c r="H5" s="13">
+        <v>0.67108000000000001</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="K5" s="13" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="L5" s="13" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="M5" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N5" s="8" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="E6" s="14" t="s">
+      <c r="A6" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="F6" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="I6" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="J6" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="K6" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="L6" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="M6" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="N6" s="9" t="s">
-        <v>52</v>
+      <c r="G6" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="H6" s="17">
+        <v>6.689724</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="J6" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="K6" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="L6" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="M6" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="N6" s="12" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="21" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="C7" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" s="14">
+        <v>7.2122380000000001</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="K7" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="L7" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="M7" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="N7" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" s="16">
+        <v>12.066048</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="J8" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="K8" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="L8" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="M8" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N8" s="11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="I7" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="J7" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="K7" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="L7" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="M7" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="N7" s="9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="C8" s="9" t="s">
+      <c r="D9" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="15">
+        <v>14.28065</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="K9" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="L9" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="H8" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="I8" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="J8" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="K8" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="L8" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="M8" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="N8" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="G9" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="H9" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="I9" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="J9" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="K9" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="L9" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="M9" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="N9" s="12" t="s">
-        <v>98</v>
+      <c r="M9" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N9" s="10" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="23" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C10" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" s="17">
+        <v>15.284298</v>
+      </c>
+      <c r="I10" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="J10" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="K10" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="L10" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="M10" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="N10" s="12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="B11" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="D10" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="F10" s="17" t="s">
+      <c r="C11" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="14">
+        <v>24.696249999999999</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="K11" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="L11" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="M11" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="N11" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="17">
+        <v>25.173925000000001</v>
+      </c>
+      <c r="I12" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="J12" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="K12" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="H10" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="I10" s="12" t="s">
+      <c r="L12" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="J10" s="17" t="s">
+      <c r="M12" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="N12" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="K10" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="L10" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="M10" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="N10" s="12" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="G11" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="H11" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="I11" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="J11" s="17" t="s">
+    </row>
+    <row r="13" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="K11" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="L11" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="M11" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="N11" s="12" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="24" t="s">
-        <v>140</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="G12" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="H12" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="I12" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="J12" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="K12" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="L12" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="M12" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="N12" s="10" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="H13" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="I13" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="J13" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="K13" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="L13" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="M13" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="N13" s="11" t="s">
-        <v>88</v>
+      <c r="E13" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="14">
+        <v>26.544129999999999</v>
+      </c>
+      <c r="I13" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="J13" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="K13" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="L13" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="M13" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="N13" s="9" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A3:N13">
+    <sortCondition ref="H3:H13"/>
+  </sortState>
   <hyperlinks>
     <hyperlink ref="N3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="E1:I11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" customWidth="1"/>
+    <col min="3" max="3" width="24.1640625" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="7" max="7" width="15.1640625" customWidth="1"/>
+    <col min="8" max="8" width="21.83203125" customWidth="1"/>
+    <col min="9" max="9" width="26.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2">
+        <v>0.45883000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3">
+        <v>0.67108000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="F4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I4">
+        <v>6.689724</v>
+      </c>
+    </row>
+    <row r="5" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="F5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" t="s">
+        <v>106</v>
+      </c>
+      <c r="H5" t="s">
+        <v>54</v>
+      </c>
+      <c r="I5">
+        <v>7.2122380000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="F6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" t="s">
+        <v>72</v>
+      </c>
+      <c r="H6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I6">
+        <v>12.066048</v>
+      </c>
+    </row>
+    <row r="7" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="F7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7">
+        <v>14.28065</v>
+      </c>
+    </row>
+    <row r="8" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="F8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H8" t="s">
+        <v>80</v>
+      </c>
+      <c r="I8">
+        <v>15.284298</v>
+      </c>
+    </row>
+    <row r="9" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="F9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" t="s">
+        <v>106</v>
+      </c>
+      <c r="H9" t="s">
+        <v>80</v>
+      </c>
+      <c r="I9">
+        <v>24.696249999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="F10" t="s">
+        <v>104</v>
+      </c>
+      <c r="G10" t="s">
+        <v>81</v>
+      </c>
+      <c r="H10" t="s">
+        <v>97</v>
+      </c>
+      <c r="I10">
+        <v>25.173925000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="F11" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" t="s">
+        <v>106</v>
+      </c>
+      <c r="H11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11">
+        <v>26.544129999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>